--- a/Excel/EmojiConfig@c.xlsx
+++ b/Excel/EmojiConfig@c.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="Emoji" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="72">
   <si>
     <t>#</t>
   </si>
@@ -71,12 +71,15 @@
     <t>string</t>
   </si>
   <si>
+    <t>微笑</t>
+  </si>
+  <si>
+    <t>小表情</t>
+  </si>
+  <si>
     <t>可怜</t>
   </si>
   <si>
-    <t>小表情</t>
-  </si>
-  <si>
     <t>晕厥</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
     <t>吃惊</t>
   </si>
   <si>
-    <t>微笑</t>
-  </si>
-  <si>
     <t>色</t>
   </si>
   <si>
@@ -224,9 +224,6 @@
     <t>big_emoji_2001</t>
   </si>
   <si>
-    <t>洛伊</t>
-  </si>
-  <si>
     <t>等级大表情</t>
   </si>
   <si>
@@ -246,27 +243,6 @@
   </si>
   <si>
     <t>big_emoji_2004</t>
-  </si>
-  <si>
-    <t>偷看</t>
-  </si>
-  <si>
-    <t>big_emoji_2005</t>
-  </si>
-  <si>
-    <t>黛妮卡</t>
-  </si>
-  <si>
-    <t>big_emoji_2006</t>
-  </si>
-  <si>
-    <t>背影</t>
-  </si>
-  <si>
-    <t>big_emoji_2007</t>
-  </si>
-  <si>
-    <t>big_emoji_2008</t>
   </si>
 </sst>
 </file>
@@ -279,7 +255,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,6 +271,12 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -771,137 +753,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -911,6 +893,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1272,20 +1257,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:J62"/>
+  <dimension ref="C2:J57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D6" sqref="D6:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="15.2727272727273" customWidth="1"/>
-    <col min="3" max="3" width="10.7454545454545" customWidth="1"/>
-    <col min="4" max="4" width="7.54545454545455" customWidth="1"/>
-    <col min="5" max="5" width="13.4363636363636" customWidth="1"/>
-    <col min="7" max="7" width="12.6272727272727" customWidth="1"/>
+    <col min="2" max="2" width="15.275" customWidth="1"/>
+    <col min="3" max="3" width="10.7416666666667" customWidth="1"/>
+    <col min="4" max="4" width="7.54166666666667" customWidth="1"/>
+    <col min="5" max="5" width="13.4333333333333" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1297,7 +1283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:9">
+    <row r="3" ht="14.25" spans="3:9">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1320,7 +1306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="3:9">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1339,7 +1325,7 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="3:10">
+    <row r="5" s="1" customFormat="1" ht="14.25" spans="3:10">
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1359,13 +1345,16 @@
       <c r="I5" s="2"/>
       <c r="J5"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:9">
+    <row r="6" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="E6" s="3">
+        <v>4101</v>
+      </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
@@ -1379,13 +1368,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:9">
+    <row r="7" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E7" s="3">
+        <v>4102</v>
+      </c>
       <c r="F7" s="1">
         <v>2</v>
       </c>
@@ -1399,13 +1391,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="3:9">
+    <row r="8" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E8" s="3">
+        <v>4103</v>
+      </c>
       <c r="F8" s="1">
         <v>3</v>
       </c>
@@ -1419,13 +1414,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="3:9">
+    <row r="9" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C9" s="1">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="E9" s="3">
+        <v>4104</v>
+      </c>
       <c r="F9" s="1">
         <v>4</v>
       </c>
@@ -1439,13 +1437,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="3:9">
+    <row r="10" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C10" s="1">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="E10" s="3">
+        <v>4105</v>
+      </c>
       <c r="F10" s="1">
         <v>5</v>
       </c>
@@ -1459,13 +1460,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="3:9">
+    <row r="11" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C11" s="1">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E11" s="3">
+        <v>4106</v>
+      </c>
       <c r="F11" s="1">
         <v>6</v>
       </c>
@@ -1479,13 +1483,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="3:9">
+    <row r="12" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C12" s="1">
         <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E12" s="3">
+        <v>4107</v>
+      </c>
       <c r="F12" s="1">
         <v>7</v>
       </c>
@@ -1499,13 +1506,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="3:9">
+    <row r="13" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C13" s="1">
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="E13" s="3">
+        <v>4108</v>
+      </c>
       <c r="F13" s="1">
         <v>8</v>
       </c>
@@ -1519,13 +1529,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="3:9">
+    <row r="14" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C14" s="1">
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="E14" s="3">
+        <v>4109</v>
+      </c>
       <c r="F14" s="1">
         <v>9</v>
       </c>
@@ -1539,13 +1552,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="3:9">
+    <row r="15" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C15" s="1">
         <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="E15" s="3">
+        <v>4110</v>
+      </c>
       <c r="F15" s="1">
         <v>10</v>
       </c>
@@ -1559,13 +1575,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="3:9">
+    <row r="16" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C16" s="1">
         <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E16" s="3">
+        <v>4111</v>
+      </c>
       <c r="F16" s="1">
         <v>11</v>
       </c>
@@ -1579,13 +1598,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="3:9">
+    <row r="17" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C17" s="1">
         <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="E17" s="3">
+        <v>4112</v>
+      </c>
       <c r="F17" s="1">
         <v>12</v>
       </c>
@@ -1599,13 +1621,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="3:9">
+    <row r="18" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C18" s="1">
         <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="E18" s="3">
+        <v>4113</v>
+      </c>
       <c r="F18" s="1">
         <v>13</v>
       </c>
@@ -1619,13 +1644,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="3:9">
+    <row r="19" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C19" s="1">
         <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="E19" s="3">
+        <v>4114</v>
+      </c>
       <c r="F19" s="1">
         <v>14</v>
       </c>
@@ -1639,13 +1667,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="3:9">
+    <row r="20" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C20" s="1">
         <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="E20" s="3">
+        <v>4115</v>
+      </c>
       <c r="F20" s="1">
         <v>15</v>
       </c>
@@ -1659,13 +1690,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="3:9">
+    <row r="21" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C21" s="1">
         <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="E21" s="3">
+        <v>4116</v>
+      </c>
       <c r="F21" s="1">
         <v>16</v>
       </c>
@@ -1679,13 +1713,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="3:9">
+    <row r="22" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C22" s="1">
         <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="E22" s="3">
+        <v>4117</v>
+      </c>
       <c r="F22" s="1">
         <v>17</v>
       </c>
@@ -1699,13 +1736,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="3:9">
+    <row r="23" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C23" s="1">
         <v>18</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="E23" s="3">
+        <v>4118</v>
+      </c>
       <c r="F23" s="1">
         <v>18</v>
       </c>
@@ -1719,13 +1759,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="3:9">
+    <row r="24" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C24" s="1">
         <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="E24" s="3">
+        <v>4119</v>
+      </c>
       <c r="F24" s="1">
         <v>19</v>
       </c>
@@ -1739,13 +1782,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="3:9">
+    <row r="25" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C25" s="1">
         <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="E25" s="3">
+        <v>4120</v>
+      </c>
       <c r="F25" s="1">
         <v>20</v>
       </c>
@@ -1759,13 +1805,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="3:9">
+    <row r="26" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C26" s="1">
         <v>21</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="E26" s="3">
+        <v>4121</v>
+      </c>
       <c r="F26" s="1">
         <v>21</v>
       </c>
@@ -1779,13 +1828,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="3:9">
+    <row r="27" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C27" s="1">
         <v>22</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="E27" s="3">
+        <v>4122</v>
+      </c>
       <c r="F27" s="1">
         <v>22</v>
       </c>
@@ -1799,13 +1851,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="3:9">
+    <row r="28" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C28" s="1">
         <v>23</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="E28" s="3">
+        <v>4123</v>
+      </c>
       <c r="F28" s="1">
         <v>23</v>
       </c>
@@ -1819,13 +1874,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="3:9">
+    <row r="29" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C29" s="1">
         <v>24</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="E29" s="3">
+        <v>4124</v>
+      </c>
       <c r="F29" s="1">
         <v>24</v>
       </c>
@@ -1839,13 +1897,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="3:9">
+    <row r="30" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C30" s="1">
         <v>25</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="E30" s="3">
+        <v>4125</v>
+      </c>
       <c r="F30" s="1">
         <v>25</v>
       </c>
@@ -1859,13 +1920,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" spans="3:9">
+    <row r="31" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C31" s="1">
         <v>26</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="E31" s="3">
+        <v>4126</v>
+      </c>
       <c r="F31" s="1">
         <v>26</v>
       </c>
@@ -1879,13 +1943,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" spans="3:9">
+    <row r="32" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C32" s="1">
         <v>27</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="E32" s="3">
+        <v>4127</v>
+      </c>
       <c r="F32" s="1">
         <v>27</v>
       </c>
@@ -1899,13 +1966,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" spans="3:9">
+    <row r="33" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C33" s="1">
         <v>28</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="E33" s="3">
+        <v>4128</v>
+      </c>
       <c r="F33" s="1">
         <v>28</v>
       </c>
@@ -1919,13 +1989,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" spans="3:9">
+    <row r="34" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C34" s="1">
         <v>29</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="E34" s="3">
+        <v>4129</v>
+      </c>
       <c r="F34" s="1">
         <v>29</v>
       </c>
@@ -1939,13 +2012,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" spans="3:9">
+    <row r="35" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C35" s="1">
         <v>30</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="E35" s="3">
+        <v>4130</v>
+      </c>
       <c r="F35" s="1">
         <v>30</v>
       </c>
@@ -1959,13 +2035,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" spans="3:9">
+    <row r="36" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C36" s="1">
         <v>31</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="E36" s="3">
+        <v>4131</v>
+      </c>
       <c r="F36" s="1">
         <v>31</v>
       </c>
@@ -1979,13 +2058,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" spans="3:9">
+    <row r="37" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C37" s="1">
         <v>32</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="E37" s="3">
+        <v>4132</v>
+      </c>
       <c r="F37" s="1">
         <v>32</v>
       </c>
@@ -1999,13 +2081,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" spans="3:9">
+    <row r="38" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C38" s="1">
         <v>33</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="E38" s="3">
+        <v>4133</v>
+      </c>
       <c r="F38" s="1">
         <v>33</v>
       </c>
@@ -2019,13 +2104,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" spans="3:9">
+    <row r="39" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C39" s="1">
         <v>34</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="E39" s="3">
+        <v>4134</v>
+      </c>
       <c r="F39" s="1">
         <v>34</v>
       </c>
@@ -2039,13 +2127,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" spans="3:9">
+    <row r="40" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C40" s="1">
         <v>35</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="E40" s="3">
+        <v>4135</v>
+      </c>
       <c r="F40" s="1">
         <v>35</v>
       </c>
@@ -2059,13 +2150,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" spans="3:9">
+    <row r="41" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C41" s="1">
         <v>36</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="E41" s="3">
+        <v>4136</v>
+      </c>
       <c r="F41" s="1">
         <v>36</v>
       </c>
@@ -2079,13 +2173,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" spans="3:9">
+    <row r="42" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C42" s="1">
         <v>37</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="E42" s="3">
+        <v>4137</v>
+      </c>
       <c r="F42" s="1">
         <v>37</v>
       </c>
@@ -2099,13 +2196,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" spans="3:9">
+    <row r="43" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C43" s="1">
         <v>38</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="E43" s="3">
+        <v>4138</v>
+      </c>
       <c r="F43" s="1">
         <v>38</v>
       </c>
@@ -2119,13 +2219,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" spans="3:9">
+    <row r="44" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C44" s="1">
         <v>39</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="E44" s="3">
+        <v>4139</v>
+      </c>
       <c r="F44" s="1">
         <v>39</v>
       </c>
@@ -2139,13 +2242,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" spans="3:9">
+    <row r="45" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C45" s="1">
         <v>40</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="E45" s="3">
+        <v>4140</v>
+      </c>
       <c r="F45" s="1">
         <v>40</v>
       </c>
@@ -2159,13 +2265,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" spans="3:9">
+    <row r="46" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C46" s="1">
         <v>41</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="E46" s="3">
+        <v>4141</v>
+      </c>
       <c r="F46" s="1">
         <v>41</v>
       </c>
@@ -2179,13 +2288,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" spans="3:9">
+    <row r="47" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C47" s="1">
         <v>42</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="E47" s="3">
+        <v>4142</v>
+      </c>
       <c r="F47" s="1">
         <v>42</v>
       </c>
@@ -2199,13 +2311,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" spans="3:9">
+    <row r="48" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C48" s="1">
         <v>43</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="E48" s="3">
+        <v>4143</v>
+      </c>
       <c r="F48" s="1">
         <v>43</v>
       </c>
@@ -2219,13 +2334,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" spans="3:9">
+    <row r="49" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C49" s="1">
         <v>44</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="E49" s="3">
+        <v>4144</v>
+      </c>
       <c r="F49" s="1">
         <v>44</v>
       </c>
@@ -2239,13 +2357,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" spans="3:9">
+    <row r="50" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C50" s="1">
         <v>45</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="E50" s="3">
+        <v>4145</v>
+      </c>
       <c r="F50" s="1">
         <v>45</v>
       </c>
@@ -2259,13 +2380,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" spans="3:9">
+    <row r="51" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C51" s="1">
         <v>46</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="E51" s="3">
+        <v>4146</v>
+      </c>
       <c r="F51" s="1">
         <v>46</v>
       </c>
@@ -2279,13 +2403,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" spans="3:9">
+    <row r="52" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C52" s="1">
         <v>47</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="E52" s="3">
+        <v>4147</v>
+      </c>
       <c r="F52" s="1">
         <v>47</v>
       </c>
@@ -2299,13 +2426,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" spans="3:9">
+    <row r="53" s="1" customFormat="1" ht="14.25" spans="3:9">
       <c r="C53" s="1">
         <v>48</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="E53" s="3">
+        <v>4148</v>
+      </c>
       <c r="F53" s="1">
         <v>48</v>
       </c>
@@ -2319,13 +2449,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" spans="3:10">
+    <row r="54" s="1" customFormat="1" ht="14.25" spans="3:10">
       <c r="C54" s="1">
         <v>2001</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="E54" s="3">
+        <v>4149</v>
+      </c>
       <c r="F54" s="1" t="s">
         <v>64</v>
       </c>
@@ -2335,22 +2468,22 @@
       <c r="H54" s="1">
         <v>2</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="J54" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J54" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" s="1" customFormat="1" spans="3:9">
+    </row>
+    <row r="55" s="1" customFormat="1" ht="14.25" spans="3:8">
       <c r="C55" s="1">
         <v>2002</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" s="3">
+        <v>4150</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="G55" s="1">
         <v>2002</v>
@@ -2358,19 +2491,19 @@
       <c r="H55" s="1">
         <v>2</v>
       </c>
-      <c r="I55" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" s="1" customFormat="1" spans="3:9">
+    </row>
+    <row r="56" s="1" customFormat="1" ht="14.25" spans="3:8">
       <c r="C56" s="1">
         <v>2003</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E56" s="3">
+        <v>4151</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="G56" s="1">
         <v>2003</v>
@@ -2378,19 +2511,19 @@
       <c r="H56" s="1">
         <v>2</v>
       </c>
-      <c r="I56" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" s="1" customFormat="1" spans="3:9">
+    </row>
+    <row r="57" s="1" customFormat="1" ht="14.25" spans="3:8">
       <c r="C57" s="1">
         <v>2004</v>
       </c>
       <c r="D57" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4152</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="G57" s="1">
         <v>2004</v>
@@ -2398,91 +2531,7 @@
       <c r="H57" s="1">
         <v>2</v>
       </c>
-      <c r="I57" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" s="1" customFormat="1" spans="3:9">
-      <c r="C58" s="1">
-        <v>2005</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G58" s="1">
-        <v>2005</v>
-      </c>
-      <c r="H58" s="1">
-        <v>2</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" s="1" customFormat="1" spans="3:9">
-      <c r="C59" s="1">
-        <v>2006</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G59" s="1">
-        <v>2006</v>
-      </c>
-      <c r="H59" s="1">
-        <v>2</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" s="1" customFormat="1" spans="3:9">
-      <c r="C60" s="1">
-        <v>2007</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G60" s="1">
-        <v>2007</v>
-      </c>
-      <c r="H60" s="1">
-        <v>2</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" s="1" customFormat="1" spans="3:9">
-      <c r="C61" s="1">
-        <v>2008</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G61" s="1">
-        <v>2008</v>
-      </c>
-      <c r="H61" s="1">
-        <v>2</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" s="1" customFormat="1"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D6:D48 D50">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
